--- a/Vocabulary/生单词.xlsx
+++ b/Vocabulary/生单词.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/oddyti/Report/Vocabulary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE55C56-BD7A-43C1-A3FD-73B85BE7DBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFE7150-AEF9-0041-A923-2F041E1D03FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>deprive</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,254 @@
   </si>
   <si>
     <t>剥夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肋骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琐碎的，微不足道的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prejudice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏见、歧视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infrared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infra+red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eminent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰出的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰出的Eminem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitute A for B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳、劳累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>democratic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民主的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德先生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypocrisy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚伪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypocrite伪君子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过，超出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metropolitan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大都会的，大城市的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bathe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（在河里、海里）游泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区别于bath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courtesy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法庭上要讲礼貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并，融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格，性情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiscal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财政的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaflet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发传单，传单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>let leaf发小叶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pharmacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pharm = drug是药品相关的词根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制，被复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy, replicate, duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺乏的，缺少的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarce metals 稀有金属，lack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freelance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由职业的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使得惊骇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分appal（吓人）和appeal（吸引人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,17 +423,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="华文中宋"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="华文中宋"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -210,16 +458,29 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -227,16 +488,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -255,93 +539,60 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="包裹">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="包裹">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="4A5356"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E3CE"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="F6A21D"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="9BAFB5"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="C96731"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="9CA383"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="87795D"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="A0988C"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="00B0F0"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="738F97"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="包裹">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Grek" typeface="Corbel"/>
+        <a:font script="Cyrl" typeface="Corbel"/>
+        <a:font script="Jpan" typeface="HGｺﾞｼｯｸE"/>
+        <a:font script="Hang" typeface="휴먼매직체"/>
+        <a:font script="Hans" typeface="华文中宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Majalla UI"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -362,12 +613,49 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Grek" typeface="Corbel"/>
+        <a:font script="Cyrl" typeface="Corbel"/>
+        <a:font script="Jpan" typeface="HGｺﾞｼｯｸE"/>
+        <a:font script="Hang" typeface="휴먼매직체"/>
+        <a:font script="Hans" typeface="华文中宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Majalla UI"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="包裹">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -376,23 +664,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="80000"/>
+                <a:satMod val="107000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
+                <a:tint val="82000"/>
                 <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -402,23 +683,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
+                <a:tint val="97000"/>
+                <a:satMod val="100000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="110000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -431,21 +712,18 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -457,12 +735,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="55880" dist="15240" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="45000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="brightRoom" dir="tl"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="dkEdge">
+            <a:bevelT w="0" h="0"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -479,28 +766,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="97000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="185000"/>
+                <a:lumMod val="120000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="96000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="215000"/>
+                <a:lumMod val="80000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="55000" r="125000" b="100000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -509,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Parcel" id="{8BEC4385-4EB9-4D53-BFB5-0EA123736B6D}" vid="{4DB32801-28C0-48B0-8C1D-A9A58613615A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,169 +800,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="23"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="4">
+    <row r="1" spans="1:4" ht="25">
+      <c r="A1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24">
+      <c r="A2" s="6">
         <v>44619</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:4" ht="24">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:4" ht="24">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:4" ht="24">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:4" ht="24">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:4" ht="24">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:4" ht="24">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:4" ht="24">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="24">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:4" ht="24">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:4" ht="24">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" ht="24">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:4" ht="24">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:4" ht="24">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:4" ht="24">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="24">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.6" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="24">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>44620</v>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
